--- a/GES_Travel history details - TSS v.2.xlsx
+++ b/GES_Travel history details - TSS v.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emkiernan\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\O4PNON6A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\Visa\12-10-2021\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAEB2DF-8DF4-4539-8DB6-821ABA866548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15285" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Travel history details " sheetId="5" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="250">
   <si>
     <t>Travel history details</t>
   </si>
@@ -782,12 +781,15 @@
   </si>
   <si>
     <t>outside of their usual country of residence since turning 16 years of age. Please note that only the</t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="9"/>
@@ -1378,7 +1380,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1595,11 +1597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="9.9499999999999993" customHeight="1"/>
@@ -1724,7 +1726,9 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>249</v>
+      </c>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="9.9499999999999993" customHeight="1" thickBot="1">
@@ -4736,13 +4740,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Please select from the list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Please select from the list">
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>F16 F282 F338 F44 F58 F72 F86 F100 F240 F114 F142 F156 F170 F268 F254 F128 F226 F184 F212 F198 F296 F310 F324 F30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error:" error="Please only select from the list" promptTitle="Country" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error:" error="Please only select from the list" promptTitle="Country" prompt="Please select from the list">
           <x14:formula1>
             <xm:f>Sheet3!$A$3:$A$229</xm:f>
           </x14:formula1>
@@ -4755,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
